--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Sema4d-Cd72.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd72</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H2">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J2">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.47741181130241</v>
+        <v>2.021690666666667</v>
       </c>
       <c r="N2">
-        <v>1.47741181130241</v>
+        <v>6.065072000000001</v>
       </c>
       <c r="O2">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="P2">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="Q2">
-        <v>1.656419182168731</v>
+        <v>1.221151031036444</v>
       </c>
       <c r="R2">
-        <v>1.656419182168731</v>
+        <v>10.990359279328</v>
       </c>
       <c r="S2">
-        <v>0.0008462349019506634</v>
+        <v>0.0004599073667725065</v>
       </c>
       <c r="T2">
-        <v>0.0008462349019506634</v>
+        <v>0.0004599073667725066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H3">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J3">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.07733058519531</v>
+        <v>5.174352</v>
       </c>
       <c r="N3">
-        <v>5.07733058519531</v>
+        <v>15.523056</v>
       </c>
       <c r="O3">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="P3">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="Q3">
-        <v>5.692514240911282</v>
+        <v>3.125436242016</v>
       </c>
       <c r="R3">
-        <v>5.692514240911282</v>
+        <v>28.128926178144</v>
       </c>
       <c r="S3">
-        <v>0.002908203601097642</v>
+        <v>0.001177095310529233</v>
       </c>
       <c r="T3">
-        <v>0.002908203601097642</v>
+        <v>0.001177095310529233</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H4">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J4">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.715268097450959</v>
+        <v>10.98970166666667</v>
       </c>
       <c r="N4">
-        <v>8.715268097450959</v>
+        <v>32.969105</v>
       </c>
       <c r="O4">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="P4">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="Q4">
-        <v>9.771234495299451</v>
+        <v>6.638050885974445</v>
       </c>
       <c r="R4">
-        <v>9.771234495299451</v>
+        <v>59.74245797376999</v>
       </c>
       <c r="S4">
-        <v>0.004991948749494966</v>
+        <v>0.002500008947197375</v>
       </c>
       <c r="T4">
-        <v>0.004991948749494966</v>
+        <v>0.002500008947197375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H5">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I5">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J5">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.24325644296545</v>
+        <v>13.15227633333333</v>
       </c>
       <c r="N5">
-        <v>8.24325644296545</v>
+        <v>39.45682899999999</v>
       </c>
       <c r="O5">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="P5">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="Q5">
-        <v>9.242032581035776</v>
+        <v>7.944299328149554</v>
       </c>
       <c r="R5">
-        <v>9.242032581035776</v>
+        <v>71.49869395334598</v>
       </c>
       <c r="S5">
-        <v>0.004721588966868755</v>
+        <v>0.002991965524330637</v>
       </c>
       <c r="T5">
-        <v>0.004721588966868755</v>
+        <v>0.002991965524330638</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.12116281289813</v>
+        <v>0.6040246666666667</v>
       </c>
       <c r="H6">
-        <v>1.12116281289813</v>
+        <v>1.812074</v>
       </c>
       <c r="I6">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387973</v>
       </c>
       <c r="J6">
-        <v>0.01405797079285848</v>
+        <v>0.007395659364387974</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.03005081615617</v>
+        <v>1.172299</v>
       </c>
       <c r="N6">
-        <v>1.03005081615617</v>
+        <v>3.516897</v>
       </c>
       <c r="O6">
-        <v>0.04196868681404386</v>
+        <v>0.03605928862034464</v>
       </c>
       <c r="P6">
-        <v>0.04196868681404386</v>
+        <v>0.03605928862034465</v>
       </c>
       <c r="Q6">
-        <v>1.154854670469666</v>
+        <v>0.7080975127086666</v>
       </c>
       <c r="R6">
-        <v>1.154854670469666</v>
+        <v>6.372877614378</v>
       </c>
       <c r="S6">
-        <v>0.0005899945734464532</v>
+        <v>0.0002666822155582205</v>
       </c>
       <c r="T6">
-        <v>0.0005899945734464532</v>
+        <v>0.0002666822155582205</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H7">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J7">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.47741181130241</v>
+        <v>2.021690666666667</v>
       </c>
       <c r="N7">
-        <v>1.47741181130241</v>
+        <v>6.065072000000001</v>
       </c>
       <c r="O7">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="P7">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="Q7">
-        <v>40.10528901626816</v>
+        <v>2.271967884437334</v>
       </c>
       <c r="R7">
-        <v>40.10528901626816</v>
+        <v>20.44771095993601</v>
       </c>
       <c r="S7">
-        <v>0.02048907407239115</v>
+        <v>0.000855663829097723</v>
       </c>
       <c r="T7">
-        <v>0.02048907407239115</v>
+        <v>0.0008556638290977232</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H8">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I8">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J8">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.07733058519531</v>
+        <v>5.174352</v>
       </c>
       <c r="N8">
-        <v>5.07733058519531</v>
+        <v>15.523056</v>
       </c>
       <c r="O8">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="P8">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="Q8">
-        <v>137.8273877280621</v>
+        <v>5.814916080192001</v>
       </c>
       <c r="R8">
-        <v>137.8273877280621</v>
+        <v>52.33424472172801</v>
       </c>
       <c r="S8">
-        <v>0.07041354458807021</v>
+        <v>0.002190001625085141</v>
       </c>
       <c r="T8">
-        <v>0.07041354458807021</v>
+        <v>0.002190001625085141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H9">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I9">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J9">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.715268097450959</v>
+        <v>10.98970166666667</v>
       </c>
       <c r="N9">
-        <v>8.715268097450959</v>
+        <v>32.969105</v>
       </c>
       <c r="O9">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="P9">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="Q9">
-        <v>236.5815294209718</v>
+        <v>12.35018277419334</v>
       </c>
       <c r="R9">
-        <v>236.5815294209718</v>
+        <v>111.15164496774</v>
       </c>
       <c r="S9">
-        <v>0.1208652673840506</v>
+        <v>0.004651300203233347</v>
       </c>
       <c r="T9">
-        <v>0.1208652673840506</v>
+        <v>0.004651300203233348</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H10">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I10">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J10">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.24325644296545</v>
+        <v>13.15227633333333</v>
       </c>
       <c r="N10">
-        <v>8.24325644296545</v>
+        <v>39.45682899999999</v>
       </c>
       <c r="O10">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="P10">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="Q10">
-        <v>223.7684710188595</v>
+        <v>14.78047553429467</v>
       </c>
       <c r="R10">
-        <v>223.7684710188595</v>
+        <v>133.024279808652</v>
       </c>
       <c r="S10">
-        <v>0.1143193052644842</v>
+        <v>0.005566592018395507</v>
       </c>
       <c r="T10">
-        <v>0.1143193052644842</v>
+        <v>0.005566592018395508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.1456399017911</v>
+        <v>1.123796</v>
       </c>
       <c r="H11">
-        <v>27.1456399017911</v>
+        <v>3.371388</v>
       </c>
       <c r="I11">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="J11">
-        <v>0.3403721640627646</v>
+        <v>0.0137597235174641</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.03005081615617</v>
+        <v>1.172299</v>
       </c>
       <c r="N11">
-        <v>1.03005081615617</v>
+        <v>3.516897</v>
       </c>
       <c r="O11">
-        <v>0.04196868681404386</v>
+        <v>0.03605928862034464</v>
       </c>
       <c r="P11">
-        <v>0.04196868681404386</v>
+        <v>0.03605928862034465</v>
       </c>
       <c r="Q11">
-        <v>27.96138853592142</v>
+        <v>1.317424927004</v>
       </c>
       <c r="R11">
-        <v>27.96138853592142</v>
+        <v>11.856824343036</v>
       </c>
       <c r="S11">
-        <v>0.01428497275376852</v>
+        <v>0.0004961658416523817</v>
       </c>
       <c r="T11">
-        <v>0.01428497275376852</v>
+        <v>0.0004961658416523819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H12">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I12">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J12">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.47741181130241</v>
+        <v>2.021690666666667</v>
       </c>
       <c r="N12">
-        <v>1.47741181130241</v>
+        <v>6.065072000000001</v>
       </c>
       <c r="O12">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="P12">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="Q12">
-        <v>72.93883362802131</v>
+        <v>56.87742575738312</v>
       </c>
       <c r="R12">
-        <v>72.93883362802131</v>
+        <v>511.8968318164481</v>
       </c>
       <c r="S12">
-        <v>0.03726314412924791</v>
+        <v>0.02142105803790303</v>
       </c>
       <c r="T12">
-        <v>0.03726314412924791</v>
+        <v>0.02142105803790303</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H13">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I13">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J13">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.07733058519531</v>
+        <v>5.174352</v>
       </c>
       <c r="N13">
-        <v>5.07733058519531</v>
+        <v>15.523056</v>
       </c>
       <c r="O13">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="P13">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="Q13">
-        <v>250.6644173242103</v>
+        <v>145.573121830656</v>
       </c>
       <c r="R13">
-        <v>250.6644173242103</v>
+        <v>1310.158096475904</v>
       </c>
       <c r="S13">
-        <v>0.1280599626594192</v>
+        <v>0.05482544700238001</v>
       </c>
       <c r="T13">
-        <v>0.1280599626594192</v>
+        <v>0.05482544700238001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H14">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I14">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J14">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.715268097450959</v>
+        <v>10.98970166666667</v>
       </c>
       <c r="N14">
-        <v>8.715268097450959</v>
+        <v>32.969105</v>
       </c>
       <c r="O14">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="P14">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="Q14">
-        <v>430.2669607217999</v>
+        <v>309.1798121975911</v>
       </c>
       <c r="R14">
-        <v>430.2669607217999</v>
+        <v>2782.61830977832</v>
       </c>
       <c r="S14">
-        <v>0.2198156862940341</v>
+        <v>0.1164426591576685</v>
       </c>
       <c r="T14">
-        <v>0.2198156862940341</v>
+        <v>0.1164426591576685</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H15">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I15">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J15">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.24325644296545</v>
+        <v>13.15227633333333</v>
       </c>
       <c r="N15">
-        <v>8.24325644296545</v>
+        <v>39.45682899999999</v>
       </c>
       <c r="O15">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="P15">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="Q15">
-        <v>406.964060830499</v>
+        <v>370.0208113059928</v>
       </c>
       <c r="R15">
-        <v>406.964060830499</v>
+        <v>3330.187301753936</v>
       </c>
       <c r="S15">
-        <v>0.2079106519784677</v>
+        <v>0.1393564699645141</v>
       </c>
       <c r="T15">
-        <v>0.2079106519784677</v>
+        <v>0.1393564699645141</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.3693316041126</v>
+        <v>28.13359466666667</v>
       </c>
       <c r="H16">
-        <v>49.3693316041126</v>
+        <v>84.400784</v>
       </c>
       <c r="I16">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="J16">
-        <v>0.6190292915259406</v>
+        <v>0.3444668642402499</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.03005081615617</v>
+        <v>1.172299</v>
       </c>
       <c r="N16">
-        <v>1.03005081615617</v>
+        <v>3.516897</v>
       </c>
       <c r="O16">
-        <v>0.04196868681404386</v>
+        <v>0.03605928862034464</v>
       </c>
       <c r="P16">
-        <v>0.04196868681404386</v>
+        <v>0.03605928862034465</v>
       </c>
       <c r="Q16">
-        <v>50.85292031190078</v>
+        <v>32.98098489413866</v>
       </c>
       <c r="R16">
-        <v>50.85292031190078</v>
+        <v>296.828864047248</v>
       </c>
       <c r="S16">
-        <v>0.02597984646477165</v>
+        <v>0.01242123007778424</v>
       </c>
       <c r="T16">
-        <v>0.02597984646477165</v>
+        <v>0.01242123007778425</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H17">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I17">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J17">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.47741181130241</v>
+        <v>2.021690666666667</v>
       </c>
       <c r="N17">
-        <v>1.47741181130241</v>
+        <v>6.065072000000001</v>
       </c>
       <c r="O17">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="P17">
-        <v>0.06019609191253656</v>
+        <v>0.06218612081933902</v>
       </c>
       <c r="Q17">
-        <v>3.127216288546593</v>
+        <v>100.1193566443662</v>
       </c>
       <c r="R17">
-        <v>3.127216288546593</v>
+        <v>901.0742097992961</v>
       </c>
       <c r="S17">
-        <v>0.001597638808946836</v>
+        <v>0.03770674429860406</v>
       </c>
       <c r="T17">
-        <v>0.001597638808946836</v>
+        <v>0.03770674429860407</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H18">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I18">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J18">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.07733058519531</v>
+        <v>5.174352</v>
       </c>
       <c r="N18">
-        <v>5.07733058519531</v>
+        <v>15.523056</v>
       </c>
       <c r="O18">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="P18">
-        <v>0.2068722181849335</v>
+        <v>0.1591602928871027</v>
       </c>
       <c r="Q18">
-        <v>10.74711247526946</v>
+        <v>256.247309162112</v>
       </c>
       <c r="R18">
-        <v>10.74711247526946</v>
+        <v>2306.225782459008</v>
       </c>
       <c r="S18">
-        <v>0.005490507336346448</v>
+        <v>0.09650732972748081</v>
       </c>
       <c r="T18">
-        <v>0.005490507336346448</v>
+        <v>0.09650732972748081</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H19">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I19">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J19">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.715268097450959</v>
+        <v>10.98970166666667</v>
       </c>
       <c r="N19">
-        <v>8.715268097450959</v>
+        <v>32.969105</v>
       </c>
       <c r="O19">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="P19">
-        <v>0.3550973908717254</v>
+        <v>0.3380373302799166</v>
       </c>
       <c r="Q19">
-        <v>18.44748237755926</v>
+        <v>544.2384825341823</v>
       </c>
       <c r="R19">
-        <v>18.44748237755926</v>
+        <v>4898.146342807639</v>
       </c>
       <c r="S19">
-        <v>0.009424488444145685</v>
+        <v>0.2049699677083518</v>
       </c>
       <c r="T19">
-        <v>0.009424488444145685</v>
+        <v>0.2049699677083518</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.11668558801476</v>
+        <v>49.52258933333334</v>
       </c>
       <c r="H20">
-        <v>2.11668558801476</v>
+        <v>148.567768</v>
       </c>
       <c r="I20">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="J20">
-        <v>0.02654057361843632</v>
+        <v>0.6063530543760464</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.24325644296545</v>
+        <v>13.15227633333333</v>
       </c>
       <c r="N20">
-        <v>8.24325644296545</v>
+        <v>39.45682899999999</v>
       </c>
       <c r="O20">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="P20">
-        <v>0.3358656122167608</v>
+        <v>0.4045569673932971</v>
       </c>
       <c r="Q20">
-        <v>17.44838211113478</v>
+        <v>651.3347796541857</v>
       </c>
       <c r="R20">
-        <v>17.44838211113478</v>
+        <v>5862.013016887671</v>
       </c>
       <c r="S20">
-        <v>0.008914066006940127</v>
+        <v>0.2453043528480363</v>
       </c>
       <c r="T20">
-        <v>0.008914066006940127</v>
+        <v>0.2453043528480363</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>49.52258933333334</v>
+      </c>
+      <c r="H21">
+        <v>148.567768</v>
+      </c>
+      <c r="I21">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="J21">
+        <v>0.6063530543760464</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.172299</v>
+      </c>
+      <c r="N21">
+        <v>3.516897</v>
+      </c>
+      <c r="O21">
+        <v>0.03605928862034464</v>
+      </c>
+      <c r="P21">
+        <v>0.03605928862034465</v>
+      </c>
+      <c r="Q21">
+        <v>58.05528195287734</v>
+      </c>
+      <c r="R21">
+        <v>522.497537575896</v>
+      </c>
+      <c r="S21">
+        <v>0.02186465979357338</v>
+      </c>
+      <c r="T21">
+        <v>0.02186465979357339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H22">
+        <v>6.866572</v>
+      </c>
+      <c r="I22">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J22">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.021690666666667</v>
+      </c>
+      <c r="N22">
+        <v>6.065072000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.06218612081933902</v>
+      </c>
+      <c r="P22">
+        <v>0.06218612081933902</v>
+      </c>
+      <c r="Q22">
+        <v>4.627361508131555</v>
+      </c>
+      <c r="R22">
+        <v>41.646253573184</v>
+      </c>
+      <c r="S22">
+        <v>0.001742747286961693</v>
+      </c>
+      <c r="T22">
+        <v>0.001742747286961694</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H23">
+        <v>6.866572</v>
+      </c>
+      <c r="I23">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J23">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.174352</v>
+      </c>
+      <c r="N23">
+        <v>15.523056</v>
+      </c>
+      <c r="O23">
+        <v>0.1591602928871027</v>
+      </c>
+      <c r="P23">
+        <v>0.1591602928871027</v>
+      </c>
+      <c r="Q23">
+        <v>11.843353520448</v>
+      </c>
+      <c r="R23">
+        <v>106.590181684032</v>
+      </c>
+      <c r="S23">
+        <v>0.004460419221627448</v>
+      </c>
+      <c r="T23">
+        <v>0.004460419221627449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H24">
+        <v>6.866572</v>
+      </c>
+      <c r="I24">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J24">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>10.98970166666667</v>
+      </c>
+      <c r="N24">
+        <v>32.969105</v>
+      </c>
+      <c r="O24">
+        <v>0.3380373302799166</v>
+      </c>
+      <c r="P24">
+        <v>0.3380373302799166</v>
+      </c>
+      <c r="Q24">
+        <v>25.15385925089555</v>
+      </c>
+      <c r="R24">
+        <v>226.38473325806</v>
+      </c>
+      <c r="S24">
+        <v>0.009473394263465494</v>
+      </c>
+      <c r="T24">
+        <v>0.009473394263465496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="H21">
-        <v>2.11668558801476</v>
-      </c>
-      <c r="I21">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="J21">
-        <v>0.02654057361843632</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.03005081615617</v>
-      </c>
-      <c r="N21">
-        <v>1.03005081615617</v>
-      </c>
-      <c r="O21">
-        <v>0.04196868681404386</v>
-      </c>
-      <c r="P21">
-        <v>0.04196868681404386</v>
-      </c>
-      <c r="Q21">
-        <v>2.180293717480606</v>
-      </c>
-      <c r="R21">
-        <v>2.180293717480606</v>
-      </c>
-      <c r="S21">
-        <v>0.001113873022057229</v>
-      </c>
-      <c r="T21">
-        <v>0.001113873022057229</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H25">
+        <v>6.866572</v>
+      </c>
+      <c r="I25">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J25">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>13.15227633333333</v>
+      </c>
+      <c r="N25">
+        <v>39.45682899999999</v>
+      </c>
+      <c r="O25">
+        <v>0.4045569673932971</v>
+      </c>
+      <c r="P25">
+        <v>0.4045569673932971</v>
+      </c>
+      <c r="Q25">
+        <v>30.10368413557644</v>
+      </c>
+      <c r="R25">
+        <v>270.9331572201879</v>
+      </c>
+      <c r="S25">
+        <v>0.01133758703802056</v>
+      </c>
+      <c r="T25">
+        <v>0.01133758703802056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.288857333333333</v>
+      </c>
+      <c r="H26">
+        <v>6.866572</v>
+      </c>
+      <c r="I26">
+        <v>0.0280246985018516</v>
+      </c>
+      <c r="J26">
+        <v>0.02802469850185161</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.172299</v>
+      </c>
+      <c r="N26">
+        <v>3.516897</v>
+      </c>
+      <c r="O26">
+        <v>0.03605928862034464</v>
+      </c>
+      <c r="P26">
+        <v>0.03605928862034465</v>
+      </c>
+      <c r="Q26">
+        <v>2.683225163009333</v>
+      </c>
+      <c r="R26">
+        <v>24.149026467084</v>
+      </c>
+      <c r="S26">
+        <v>0.001010550691776407</v>
+      </c>
+      <c r="T26">
+        <v>0.001010550691776407</v>
       </c>
     </row>
   </sheetData>
